--- a/project_summary.xlsx
+++ b/project_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python\project_file_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398F369A-6662-4877-9FE0-CF041BB408FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A637DFD4-BD07-46BB-BC87-F25AF52576FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10608" yWindow="2244" windowWidth="22296" windowHeight="13236" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="752">
   <si>
     <t>RFFM-1001-A</t>
   </si>
@@ -1918,6 +1918,388 @@
   </si>
   <si>
     <t>RFAD-4003-B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SHCY </t>
+  </si>
+  <si>
+    <t>Digitrack</t>
+  </si>
+  <si>
+    <t>HHJY</t>
+  </si>
+  <si>
+    <t>AH/KMAC</t>
+  </si>
+  <si>
+    <t>AHYL</t>
+  </si>
+  <si>
+    <t>——</t>
+  </si>
+  <si>
+    <t>OT</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>OJH</t>
+  </si>
+  <si>
+    <t>Medstar</t>
+  </si>
+  <si>
+    <t>JW</t>
+  </si>
+  <si>
+    <t>OPTP/Pearl</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>M.I.One</t>
+  </si>
+  <si>
+    <t>Sanma</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>HZYS、MGB</t>
+  </si>
+  <si>
+    <t>XA</t>
+  </si>
+  <si>
+    <t>Medical Experts</t>
+  </si>
+  <si>
+    <t>SYG</t>
+  </si>
+  <si>
+    <t>SY</t>
+  </si>
+  <si>
+    <t>DS-Med</t>
+  </si>
+  <si>
+    <t>HKSZ</t>
+  </si>
+  <si>
+    <t>HZYS</t>
+  </si>
+  <si>
+    <t>DYJ</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>SKS</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia-Endomed </t>
+  </si>
+  <si>
+    <t>Chammed</t>
+  </si>
+  <si>
+    <t>OM/Prism/Dandy</t>
+  </si>
+  <si>
+    <t>Endomed</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>HNK</t>
+  </si>
+  <si>
+    <t>LPM/OPTO/FX</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>MGB</t>
+  </si>
+  <si>
+    <t>HWK</t>
+  </si>
+  <si>
+    <t>YSYL</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>YDYX</t>
+  </si>
+  <si>
+    <t>LY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endolax </t>
+  </si>
+  <si>
+    <t>MIVONIX</t>
+  </si>
+  <si>
+    <t>JJYL</t>
+  </si>
+  <si>
+    <t>DPM</t>
+  </si>
+  <si>
+    <t>YYZX</t>
+  </si>
+  <si>
+    <t>GY</t>
+  </si>
+  <si>
+    <t>OPTO/DFV</t>
+  </si>
+  <si>
+    <t>J.H.</t>
+  </si>
+  <si>
+    <t>JY</t>
+  </si>
+  <si>
+    <t>WCYT</t>
+  </si>
+  <si>
+    <t>SZKL</t>
+  </si>
+  <si>
+    <t>YNP</t>
+  </si>
+  <si>
+    <t>Chanmmed</t>
+  </si>
+  <si>
+    <t>M.I.ONE</t>
+  </si>
+  <si>
+    <t>HJ</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>HKWS</t>
+  </si>
+  <si>
+    <t>HXJY</t>
+  </si>
+  <si>
+    <t>Russer</t>
+  </si>
+  <si>
+    <t>JH</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>YS</t>
+  </si>
+  <si>
+    <t>KNST</t>
+  </si>
+  <si>
+    <t>BSM</t>
+  </si>
+  <si>
+    <t>SWS</t>
+  </si>
+  <si>
+    <t>RY</t>
+  </si>
+  <si>
+    <t>ZK</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>dandy</t>
+  </si>
+  <si>
+    <t>JF</t>
+  </si>
+  <si>
+    <t>DANDY</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>VIMS</t>
+  </si>
+  <si>
+    <t>RJYL</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>Envision</t>
+  </si>
+  <si>
+    <t>装机箱</t>
+  </si>
+  <si>
+    <t>装机想</t>
+  </si>
+  <si>
+    <t>SZJZ</t>
+  </si>
+  <si>
+    <t>RLNF</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>XWZN</t>
+  </si>
+  <si>
+    <t>Navaneeth</t>
+  </si>
+  <si>
+    <t>SAD</t>
+  </si>
+  <si>
+    <t>BNB</t>
+  </si>
+  <si>
+    <t>BJSR</t>
+  </si>
+  <si>
+    <t>KJ</t>
+  </si>
+  <si>
+    <t>CDXX</t>
+  </si>
+  <si>
+    <t>韩军</t>
+  </si>
+  <si>
+    <t>JXYS</t>
+  </si>
+  <si>
+    <t>SHJT</t>
+  </si>
+  <si>
+    <t>KL</t>
+  </si>
+  <si>
+    <t>XSKJ</t>
+  </si>
+  <si>
+    <t>HKY</t>
+  </si>
+  <si>
+    <t>Nawoo</t>
+  </si>
+  <si>
+    <t>SKX</t>
+  </si>
+  <si>
+    <t>WEK</t>
+  </si>
+  <si>
+    <t>MLP</t>
+  </si>
+  <si>
+    <t>ZJYY</t>
+  </si>
+  <si>
+    <t>YNK</t>
+  </si>
+  <si>
+    <t>FDZJ</t>
+  </si>
+  <si>
+    <t>QS</t>
+  </si>
+  <si>
+    <t>DCI</t>
+  </si>
+  <si>
+    <t>ECLERIS</t>
+  </si>
+  <si>
+    <t>ZEISS</t>
+  </si>
+  <si>
+    <t>Sanma/CM</t>
+  </si>
+  <si>
+    <t>天津检测所</t>
+  </si>
+  <si>
+    <t>TNYL</t>
+  </si>
+  <si>
+    <t>Rayfine</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>APK</t>
+  </si>
+  <si>
+    <t>MDL</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>TECHONE</t>
+  </si>
+  <si>
+    <t>ZY</t>
+  </si>
+  <si>
+    <t>DYA</t>
+  </si>
+  <si>
+    <t>光禾医疗</t>
+  </si>
+  <si>
+    <t>Stroz</t>
+  </si>
+  <si>
+    <t>customer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1964,9 +2346,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2247,4247 +2637,5245 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D414"/>
+  <dimension ref="A1:E414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="B354" sqref="B354"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="30.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="123.44140625" customWidth="1"/>
+    <col min="1" max="2" width="30.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="123.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>43894</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>44327</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>45485</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E4" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>44861</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E5" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>45488</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>45630</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="E7" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>42668</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="E8" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>45107</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E9" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="E10" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="E11" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="E12" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="E13" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="E14" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="E15" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>44854</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="E16" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>44939</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>44971</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="E18" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="E19" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>45553</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="E20" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>42944</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>42677</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="E22" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="E23" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="E24" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>44308</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="E25" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>45093</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>42755</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="E27" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="E28" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="E29" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="E30" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="E31" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="E32" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <v>42629</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="E33" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="E34" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="E35" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="E36" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="E37" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="E38" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="2">
         <v>44039</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="E39" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="2">
         <v>44389</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="E40" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="2">
         <v>44393</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="E41" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="2">
         <v>44533</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="E42" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="2">
         <v>44964</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="E43" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="2">
         <v>45110</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="E44" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="2">
         <v>45110</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="E45" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="2">
         <v>45184</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="E46" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="2">
         <v>45209</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="E47" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="2">
         <v>45303</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="E48" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="2">
         <v>45323</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="E49" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="2">
         <v>45709</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="E50" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="2">
         <v>45880</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="E51" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="2">
         <v>45904</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="E52" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="2">
         <v>43913</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="E53" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="2">
         <v>44047</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="E54" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="2">
         <v>44155</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="E55" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="2">
         <v>45593</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="E56" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="2">
         <v>45621</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="E57" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="2">
         <v>44328</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="2">
         <v>43217</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="E59" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="E60" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="E61" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="E62" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="E63" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="2">
         <v>44018</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="E64" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="2">
         <v>44043</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="E65" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="2">
         <v>44092</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="E66" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="2">
         <v>44215</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="E67" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="2">
         <v>44356</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="E68" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="2">
         <v>44407</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="E69" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="2">
         <v>44504</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="E70" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="2">
         <v>44543</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="E71" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="2">
         <v>44603</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="2">
         <v>44704</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="E73" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="2">
         <v>44721</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="E74" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="2">
         <v>44819</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="E75" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="2">
         <v>44911</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="E76" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="2">
         <v>45006</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="E77" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="2">
         <v>45012</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="E78" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="2">
         <v>45072</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="E79" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="2">
         <v>45090</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="E80" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="2">
         <v>45135</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="E81" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="2">
         <v>45169</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="E82" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="2">
         <v>45603</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="E83" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="2">
         <v>45814</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="E84" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="2">
         <v>45247</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="E85" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="2">
         <v>45393</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="E86" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="2">
         <v>45309</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="E87" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="2">
         <v>45532</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="E88" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="2">
         <v>45588</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="E89" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="2">
         <v>43217</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="E90" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="2">
         <v>44760</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="E91" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="2">
         <v>44370</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="E92" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="2">
         <v>44378</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="E93" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="2">
         <v>44427</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="E94" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="2">
         <v>44427</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="2">
         <v>45734</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="E96" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="2">
         <v>45898</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="E97" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="2">
         <v>43340</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="E98" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="2">
         <v>43340</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="E99" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="2">
         <v>44221</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="E100" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="2">
         <v>44845</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="E101" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" s="2">
         <v>44181</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="E102" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="2">
         <v>44257</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104" s="2">
         <v>44264</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="E104" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105" s="2">
         <v>44314</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="E105" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106" s="2">
         <v>44314</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="E106" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107" s="2">
         <v>44349</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="E107" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" s="2">
         <v>44264</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="E108" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109" s="2">
         <v>44314</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="E109" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110" s="2">
         <v>44526</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" s="2">
         <v>44977</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112" s="2">
         <v>45588</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="E112" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="E113" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114" s="2">
         <v>45874</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="E114" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115" s="2">
         <v>45530</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="E115" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116" s="2">
         <v>43096</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117" s="2">
         <v>42913</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="E117" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="E118" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="E119" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C120" s="2">
         <v>45814</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="E120" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121" s="2">
         <v>45463</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="E121" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C122" s="2">
         <v>44123</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="E122" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C123" s="2">
         <v>44579</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="E123" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C124" s="2">
         <v>44410</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C125" s="2">
         <v>44965</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C126" s="2">
         <v>42928</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="E126" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="E127" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="E128" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="E129" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="E130" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C131" s="2">
         <v>44141</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="E131" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C132" s="2">
         <v>44286</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="E132" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C133" s="2">
         <v>44330</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="E133" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C134" s="2">
         <v>44330</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="E134" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C135" s="2">
         <v>44386</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="E135" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C136" s="2">
         <v>44426</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="E136" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C137" s="1">
+      <c r="C137" s="2">
         <v>44447</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="E137" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C138" s="1">
+      <c r="C138" s="2">
         <v>44533</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="E138" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C139" s="2">
         <v>44614</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="E139" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C140" s="2">
         <v>44623</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="E140" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C141" s="2">
         <v>44630</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="E141" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C142" s="2">
         <v>44753</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="E142" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C143" s="2">
         <v>44771</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="E143" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C144" s="2">
         <v>44777</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="E144" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C145" s="2">
         <v>44789</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="E145" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C146" s="1">
+      <c r="C146" s="2">
         <v>44861</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="E146" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C147" s="2">
         <v>44977</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="E147" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C148" s="1">
+      <c r="C148" s="2">
         <v>45001</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="3" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="E148" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C149" s="1">
+      <c r="C149" s="2">
         <v>45231</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="E149" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C150" s="1">
+      <c r="C150" s="2">
         <v>45544</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="E150" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C151" s="1">
+      <c r="C151" s="2">
         <v>45603</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="E151" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C152" s="1">
+      <c r="C152" s="2">
         <v>45615</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="E152" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C153" s="1">
+      <c r="C153" s="2">
         <v>45706</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="E153" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C154" s="1">
+      <c r="C154" s="2">
         <v>45461</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="E154" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C155" s="1">
+      <c r="C155" s="2">
         <v>45624</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="E155" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C156" s="1">
+      <c r="C156" s="2">
         <v>42928</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="E156" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C157" s="1">
+      <c r="C157" s="2">
         <v>44428</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="E157" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C158" s="1">
+      <c r="C158" s="2">
         <v>44433</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="E158" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C159" s="1">
+      <c r="C159" s="2">
         <v>45068</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="E159" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C160" s="1">
+      <c r="C160" s="2">
         <v>44260</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C161" s="1">
+      <c r="C161" s="2">
         <v>44260</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="E161" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C162" s="1">
+      <c r="C162" s="2">
         <v>44431</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="E162" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C163" s="1">
+      <c r="C163" s="2">
         <v>44431</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="E163" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C165" s="1">
+      <c r="C165" s="2">
         <v>43763</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C166" s="1">
+      <c r="C166" s="2">
         <v>44277</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="E166" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C167" s="1">
+      <c r="C167" s="2">
         <v>44277</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="E167" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C168" s="1">
+      <c r="C168" s="2">
         <v>44277</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="E168" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C169" s="1">
+      <c r="C169" s="2">
         <v>45419</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="3" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="E169" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C170" s="1">
+      <c r="C170" s="2">
         <v>45743</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="3" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="E170" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C171" s="1">
+      <c r="C171" s="2">
         <v>43244</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="E171" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="E172" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C174" s="1">
+      <c r="C174" s="2">
         <v>44088</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="E174" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C175" s="1">
+      <c r="C175" s="2">
         <v>44286</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="E175" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C176" s="1">
+      <c r="C176" s="2">
         <v>44343</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="E176" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C177" s="1">
+      <c r="C177" s="2">
         <v>44364</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="E177" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C178" s="1">
+      <c r="C178" s="2">
         <v>44378</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="E178" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C179" s="1">
+      <c r="C179" s="2">
         <v>44445</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="E179" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C180" s="1">
+      <c r="C180" s="2">
         <v>44531</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="E180" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C181" s="1">
+      <c r="C181" s="2">
         <v>44552</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="E181" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C182" s="1">
+      <c r="C182" s="2">
         <v>44692</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="E182" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="C183" s="1">
+      <c r="C183" s="2">
         <v>44364</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="E183" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C184" s="1">
+      <c r="C184" s="2">
         <v>44810</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="E184" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C185" s="1">
+      <c r="C185" s="2">
         <v>44887</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="E185" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C186" s="1">
+      <c r="C186" s="2">
         <v>44894</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="E186" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C187" s="1">
+      <c r="C187" s="2">
         <v>45061</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="E187" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C188" s="1">
+      <c r="C188" s="2">
         <v>45768</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C189" s="1">
+      <c r="C189" s="2">
         <v>45188</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="E189" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C190" s="1">
+      <c r="C190" s="2">
         <v>44557</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C191" s="1">
+      <c r="C191" s="2">
         <v>45121</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191" s="3" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="E191" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C192" s="1">
+      <c r="C192" s="2">
         <v>45420</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="3" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="E192" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C193" s="1">
+      <c r="C193" s="2">
         <v>45428</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="3" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="E193" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C194" s="1">
+      <c r="C194" s="2">
         <v>45408</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D194" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="E194" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C195" s="1">
+      <c r="C195" s="2">
         <v>45461</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="E195" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C196" s="1">
+      <c r="C196" s="2">
         <v>45603</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="E196" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C197" s="1">
+      <c r="C197" s="2">
         <v>45730</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="E197" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C198" s="1">
+      <c r="C198" s="2">
         <v>45309</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D198" s="3" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="E198" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C199" s="1">
+      <c r="C199" s="2">
         <v>45145</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C200" s="1">
+      <c r="C200" s="2">
         <v>45377</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200" s="3" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="E200" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C201" s="1">
+      <c r="C201" s="2">
         <v>45492</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201" s="3" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="E201" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C202" s="1">
+      <c r="C202" s="2">
         <v>44389</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202" s="3" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="E202" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C203" s="1">
+      <c r="C203" s="2">
         <v>44389</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203" s="3" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="E203" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C204" s="1">
+      <c r="C204" s="2">
         <v>45042</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204" s="3" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="E204" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C205" s="1">
+      <c r="C205" s="2">
         <v>45384</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D205" s="3" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="E205" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C206" s="1">
+      <c r="C206" s="2">
         <v>45009</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D206" s="3" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="E206" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C207" s="1">
+      <c r="C207" s="2">
         <v>45546</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D207" s="3" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="E207" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C208" s="1">
+      <c r="C208" s="2">
         <v>45622</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D208" s="3" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="E208" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C209" s="1">
+      <c r="C209" s="2">
         <v>43627</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D209" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C210" s="1">
+      <c r="C210" s="2">
         <v>43431</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="E210" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D211" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C213" s="1">
+      <c r="C213" s="2">
         <v>44133</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D213" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="E213" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C214" s="1">
+      <c r="C214" s="2">
         <v>44434</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="E214" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C215" s="1">
+      <c r="C215" s="2">
         <v>44490</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="E215" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C216" s="1">
+      <c r="C216" s="2">
         <v>44559</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="E216" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C217" s="1">
+      <c r="C217" s="2">
         <v>44722</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D217" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="E217" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C218" s="1">
+      <c r="C218" s="2">
         <v>44750</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D218" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C219" s="1">
+      <c r="C219" s="2">
         <v>44756</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="E219" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C220" s="1">
+      <c r="C220" s="2">
         <v>44874</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="E220" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C221" s="1">
+      <c r="C221" s="2">
         <v>44932</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D221" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="E221" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C222" s="1">
+      <c r="C222" s="2">
         <v>45009</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="E222" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C223" s="1">
+      <c r="C223" s="2">
         <v>45070</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D223" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="E223" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C224" s="1">
+      <c r="C224" s="2">
         <v>45107</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D224" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="E224" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C225" s="1">
+      <c r="C225" s="2">
         <v>44988</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D225" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C226" s="1">
+      <c r="C226" s="2">
         <v>44645</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D226" s="3" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="E226" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C227" s="1">
+      <c r="C227" s="2">
         <v>44999</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D227" s="3" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="E227" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C228" s="1">
+      <c r="C228" s="2">
         <v>45161</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C229" s="1">
+      <c r="C229" s="2">
         <v>45191</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D229" s="3" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="E229" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C230" s="1">
+      <c r="C230" s="2">
         <v>45169</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="E230" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C231" s="1">
+      <c r="C231" s="2">
         <v>45776</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="E231" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C232" s="1">
+      <c r="C232" s="2">
         <v>45875</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D232" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="E232" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C233" s="1">
+      <c r="C233" s="2">
         <v>43572</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D233" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C234" s="1">
+      <c r="C234" s="2">
         <v>43726</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" s="3" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="E234" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C235" s="1">
+      <c r="C235" s="2">
         <v>42996</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="E235" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C236" s="1">
+      <c r="C236" s="2">
         <v>44546</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D236" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C237" s="1">
+      <c r="C237" s="2">
         <v>45112</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D237" s="3" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+      <c r="E237" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D238" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C239" s="1">
+      <c r="C239" s="2">
         <v>43902</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D239" s="3" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+      <c r="E239" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C240" s="1">
+      <c r="C240" s="2">
         <v>43801</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240" s="3" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D241" s="3" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D242" s="3" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C243" s="1">
+      <c r="C243" s="2">
         <v>43934</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D243" s="3" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+      <c r="E243" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D244" s="3" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C245" s="1">
+      <c r="C245" s="2">
         <v>44167</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D245" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D246" s="3" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+      <c r="E246" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D247" s="3" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+      <c r="E247" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D248" s="3" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+      <c r="E248" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C249" s="1">
+      <c r="C249" s="2">
         <v>45212</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D249" s="3" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+      <c r="E249" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C250" s="1">
+      <c r="C250" s="2">
         <v>45012</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D250" s="3" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+      <c r="E250" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C251" s="1">
+      <c r="C251" s="2">
         <v>45085</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D251" s="3" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+      <c r="E251" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C252" s="1">
+      <c r="C252" s="2">
         <v>44818</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D252" s="3" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+      <c r="E252" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C253" s="1">
+      <c r="C253" s="2">
         <v>44805</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D253" s="3" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+      <c r="E253" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C254" s="1">
+      <c r="C254" s="2">
         <v>45768</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D254" s="3" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+      <c r="E254" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C255" s="1">
+      <c r="C255" s="2">
         <v>44843</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D255" s="3" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C256" s="1">
+      <c r="C256" s="2">
         <v>44886</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D256" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C257" s="1">
+      <c r="C257" s="2">
         <v>45512</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D257" s="3" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+      <c r="E257" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C258" s="1">
+      <c r="C258" s="2">
         <v>45776</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D258" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+      <c r="E258" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C259" s="1">
+      <c r="C259" s="2">
         <v>45623</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D259" s="3" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+      <c r="E259" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C260" s="1">
+      <c r="C260" s="2">
         <v>45650</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D260" s="3" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+      <c r="E260" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C261" s="1">
+      <c r="C261" s="2">
         <v>45105</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D261" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C262" s="1">
+      <c r="C262" s="2">
         <v>45317</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D262" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C263" s="1">
+      <c r="C263" s="2">
         <v>45826</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D263" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C264" s="1">
+      <c r="C264" s="2">
         <v>45423</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D264" s="3" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C265" s="1">
+      <c r="C265" s="2">
         <v>45423</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D265" s="3" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+      <c r="E265" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C266" s="1">
+      <c r="C266" s="2">
         <v>45477</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D266" s="3" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+      <c r="E266" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D267" s="3" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+      <c r="E267" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C268" s="1">
+      <c r="C268" s="2">
         <v>45774</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D268" s="3" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+      <c r="E268" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C269" s="1">
+      <c r="C269" s="2">
         <v>45729</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C270" s="1">
+      <c r="C270" s="2">
         <v>45455</v>
       </c>
-      <c r="D270" t="s">
+      <c r="D270" s="3" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+      <c r="E270" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C271" s="1">
+      <c r="C271" s="2">
         <v>45189</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C272" s="1">
+      <c r="C272" s="2">
         <v>45288</v>
       </c>
-      <c r="D272" t="s">
+      <c r="D272" s="3" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+      <c r="E272" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D273" t="s">
+      <c r="D273" s="3" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C274" s="1">
+      <c r="C274" s="2">
         <v>45758</v>
       </c>
-      <c r="D274" t="s">
+      <c r="D274" s="3" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+      <c r="E274" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C275" s="1">
+      <c r="C275" s="2">
         <v>45484</v>
       </c>
-      <c r="D275" t="s">
+      <c r="D275" s="3" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+      <c r="E275" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C276" s="1">
+      <c r="C276" s="2">
         <v>45917</v>
       </c>
-      <c r="D276" t="s">
+      <c r="D276" s="3" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+      <c r="E276" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C277" s="1">
+      <c r="C277" s="2">
         <v>45575</v>
       </c>
-      <c r="D277" t="s">
+      <c r="D277" s="3" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+      <c r="E277" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C278" s="1">
+      <c r="C278" s="2">
         <v>45698</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D278" s="3" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C279" s="1">
+      <c r="C279" s="2">
         <v>45866</v>
       </c>
-      <c r="D279" t="s">
+      <c r="D279" s="3" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+      <c r="E279" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D280" t="s">
+      <c r="D280" s="3" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D281" t="s">
+      <c r="D281" s="3" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="C282" s="1">
+      <c r="C282" s="2">
         <v>45595</v>
       </c>
-      <c r="D282" t="s">
+      <c r="D282" s="3" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+      <c r="E282" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="C283" s="1">
+      <c r="C283" s="2">
         <v>45595</v>
       </c>
-      <c r="D283" t="s">
+      <c r="D283" s="3" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+      <c r="E283" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C284" s="1">
+      <c r="C284" s="2">
         <v>45702</v>
       </c>
-      <c r="D284" t="s">
+      <c r="D284" s="3" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+      <c r="E284" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C285" s="1">
+      <c r="C285" s="2">
         <v>45785</v>
       </c>
-      <c r="D285" t="s">
+      <c r="D285" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C286" s="1">
+      <c r="C286" s="2">
         <v>45806</v>
       </c>
-      <c r="D286" t="s">
+      <c r="D286" s="3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C287" s="1">
+      <c r="C287" s="2">
         <v>43224</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D287" s="3" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
+      <c r="E287" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C288" s="1">
+      <c r="C288" s="2">
         <v>44645</v>
       </c>
-      <c r="D288" t="s">
+      <c r="D288" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C289" s="1">
+      <c r="C289" s="2">
         <v>42894</v>
       </c>
-      <c r="D289" t="s">
+      <c r="D289" s="3" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+      <c r="E289" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C290" s="1">
+      <c r="C290" s="2">
         <v>43105</v>
       </c>
-      <c r="D290" t="s">
+      <c r="D290" s="3" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="D291" t="s">
+      <c r="D291" s="3" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+      <c r="E291" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C292" s="1">
+      <c r="C292" s="2">
         <v>43308</v>
       </c>
-      <c r="D292" t="s">
+      <c r="D292" s="3" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+      <c r="E292" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C293" s="1">
+      <c r="C293" s="2">
         <v>43308</v>
       </c>
-      <c r="D293" t="s">
+      <c r="D293" s="3" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
+      <c r="E293" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C294" s="1">
+      <c r="C294" s="2">
         <v>43474</v>
       </c>
-      <c r="D294" t="s">
+      <c r="D294" s="3" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+      <c r="E294" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C295" s="1">
+      <c r="C295" s="2">
         <v>43772</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C296" s="1">
+      <c r="C296" s="2">
         <v>44382</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C297" s="1">
+      <c r="C297" s="2">
         <v>45124</v>
       </c>
-      <c r="D297" t="s">
+      <c r="D297" s="3" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
+      <c r="E297" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C298" s="1">
+      <c r="C298" s="2">
         <v>45806</v>
       </c>
-      <c r="D298" t="s">
+      <c r="D298" s="3" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
+      <c r="E298" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C299" s="1">
+      <c r="C299" s="2">
         <v>43880</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D299" s="3" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
+      <c r="E299" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C300" s="1">
+      <c r="C300" s="2">
         <v>43117</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D300" s="3" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+      <c r="E300" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D301" s="3" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
+      <c r="E301" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C302" s="1">
+      <c r="C302" s="2">
         <v>44525</v>
       </c>
-      <c r="D302" t="s">
+      <c r="D302" s="3" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
+      <c r="E302" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C303" s="1">
+      <c r="C303" s="2">
         <v>43411</v>
       </c>
-      <c r="D303" t="s">
+      <c r="D303" s="3" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
+      <c r="E303" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C304" s="1">
+      <c r="C304" s="2">
         <v>45825</v>
       </c>
-      <c r="D304" t="s">
+      <c r="D304" s="3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C305" s="1">
+      <c r="C305" s="2">
         <v>45905</v>
       </c>
-      <c r="D305" t="s">
+      <c r="D305" s="3" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C306" s="1">
+      <c r="C306" s="2">
         <v>44608</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D306" s="3" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
+      <c r="E306" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C307" s="1">
+      <c r="C307" s="2">
         <v>44433</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D307" s="3" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
+      <c r="E307" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C308" s="1">
+      <c r="C308" s="2">
         <v>44431</v>
       </c>
-      <c r="D308" t="s">
+      <c r="D308" s="3" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
+      <c r="E308" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C309" s="1">
+      <c r="C309" s="2">
         <v>44431</v>
       </c>
-      <c r="D309" t="s">
+      <c r="D309" s="3" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
+      <c r="E309" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C310" s="1">
+      <c r="C310" s="2">
         <v>45075</v>
       </c>
-      <c r="D310" t="s">
+      <c r="D310" s="3" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D311" t="s">
+      <c r="D311" s="3" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
+      <c r="E311" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C312" s="1">
+      <c r="C312" s="2">
         <v>44588</v>
       </c>
-      <c r="D312" t="s">
+      <c r="D312" s="3" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C313" s="1">
+      <c r="C313" s="2">
         <v>43936</v>
       </c>
-      <c r="D313" t="s">
+      <c r="D313" s="3" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C314" s="1">
+      <c r="C314" s="2">
         <v>44088</v>
       </c>
-      <c r="D314" t="s">
+      <c r="D314" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
+      <c r="E314" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="D315" t="s">
+      <c r="D315" s="3" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
+      <c r="E315" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="D316" t="s">
+      <c r="D316" s="3" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
+      <c r="E316" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="D317" t="s">
+      <c r="D317" s="3" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
+      <c r="E317" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C318" s="1">
+      <c r="C318" s="2">
         <v>44438</v>
       </c>
-      <c r="D318" t="s">
+      <c r="D318" s="3" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
+      <c r="E318" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C319" s="1">
+      <c r="C319" s="2">
         <v>45432</v>
       </c>
-      <c r="D319" t="s">
+      <c r="D319" s="3" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C320" s="1">
+      <c r="C320" s="2">
         <v>44536</v>
       </c>
-      <c r="D320" t="s">
+      <c r="D320" s="3" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C321" s="1">
+      <c r="C321" s="2">
         <v>42685</v>
       </c>
-      <c r="D321" t="s">
+      <c r="D321" s="3" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C322" s="1">
+      <c r="C322" s="2">
         <v>44914</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="D323" t="s">
+      <c r="D323" s="3" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="D324" t="s">
+      <c r="D324" s="3" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="D327" t="s">
+      <c r="D327" s="3" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
+      <c r="E327" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C328" s="1">
+      <c r="C328" s="2">
         <v>45881</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C329" s="1">
+      <c r="C329" s="2">
         <v>45225</v>
       </c>
-      <c r="D329" t="s">
+      <c r="D329" s="3" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
+      <c r="E329" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C330" s="1">
+      <c r="C330" s="2">
         <v>45545</v>
       </c>
-      <c r="D330" t="s">
+      <c r="D330" s="3" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
+      <c r="E330" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C331" s="1">
+      <c r="C331" s="2">
         <v>44088</v>
       </c>
-      <c r="D331" t="s">
+      <c r="D331" s="3" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
+      <c r="E331" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C332" s="1">
+      <c r="C332" s="2">
         <v>44088</v>
       </c>
-      <c r="D332" t="s">
+      <c r="D332" s="3" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
+      <c r="E332" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C333" s="1">
+      <c r="C333" s="2">
         <v>45007</v>
       </c>
-      <c r="D333" t="s">
+      <c r="D333" s="3" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
+      <c r="E333" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C334" s="1">
+      <c r="C334" s="2">
         <v>45007</v>
       </c>
-      <c r="D334" t="s">
+      <c r="D334" s="3" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
+      <c r="E334" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C335" s="1">
+      <c r="C335" s="2">
         <v>44183</v>
       </c>
-      <c r="D335" t="s">
+      <c r="D335" s="3" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C336" s="1">
+      <c r="C336" s="2">
         <v>44183</v>
       </c>
-      <c r="D336" t="s">
+      <c r="D336" s="3" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
+      <c r="E336" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D337" t="s">
+      <c r="D337" s="3" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="D338" t="s">
+      <c r="D338" s="3" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C339" s="1">
+      <c r="C339" s="2">
         <v>44550</v>
       </c>
-      <c r="D339" t="s">
+      <c r="D339" s="3" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
+      <c r="E339" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C340" s="1">
+      <c r="C340" s="2">
         <v>44405</v>
       </c>
-      <c r="D340" t="s">
+      <c r="D340" s="3" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C341" s="1">
+      <c r="C341" s="2">
         <v>45342</v>
       </c>
-      <c r="D341" t="s">
+      <c r="D341" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C342" s="1">
+      <c r="C342" s="2">
         <v>45379</v>
       </c>
-      <c r="D342" t="s">
+      <c r="D342" s="3" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C343" s="1">
+      <c r="C343" s="2">
         <v>45419</v>
       </c>
-      <c r="D343" t="s">
+      <c r="D343" s="3" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C344" s="1">
+      <c r="C344" s="2">
         <v>45225</v>
       </c>
-      <c r="D344" t="s">
+      <c r="D344" s="3" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C345" s="1">
+      <c r="C345" s="2">
         <v>45369</v>
       </c>
-      <c r="D345" t="s">
+      <c r="D345" s="3" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="D346" t="s">
+      <c r="D346" s="3" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="D347" t="s">
+      <c r="D347" s="3" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="D348" t="s">
+      <c r="D348" s="3" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="D349" t="s">
+      <c r="D349" s="3" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="D350" t="s">
+      <c r="D350" s="3" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="D351" t="s">
+      <c r="D351" s="3" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
+      <c r="E351" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="D352" t="s">
+      <c r="D352" s="3" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C353" s="1">
+      <c r="C353" s="2">
         <v>45371</v>
       </c>
-      <c r="D353" t="s">
+      <c r="D353" s="3" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
+      <c r="E353" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C354" s="1">
+      <c r="C354" s="2">
         <v>45824</v>
       </c>
-      <c r="D354" t="s">
+      <c r="D354" s="3" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
+      <c r="E354" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C355" s="1">
+      <c r="C355" s="2">
         <v>45168</v>
       </c>
-      <c r="D355" t="s">
+      <c r="D355" s="3" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
+      <c r="E355" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="C356" s="1">
+      <c r="C356" s="2">
         <v>45274</v>
       </c>
-      <c r="D356" t="s">
+      <c r="D356" s="3" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
+      <c r="E356" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="D357" t="s">
+      <c r="D357" s="3" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
+      <c r="E357" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="D358" t="s">
+      <c r="D358" s="3" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
+      <c r="E358" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="D359" t="s">
+      <c r="D359" s="3" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
+      <c r="E359" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="D360" t="s">
+      <c r="D360" s="3" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
+      <c r="E360" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D361" t="s">
+      <c r="D361" s="3" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
+      <c r="E361" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="C362" s="1">
+      <c r="C362" s="2">
         <v>44565</v>
       </c>
-      <c r="D362" t="s">
+      <c r="D362" s="3" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
+      <c r="E362" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="C363" s="1">
+      <c r="C363" s="2">
         <v>44567</v>
       </c>
-      <c r="D363" t="s">
+      <c r="D363" s="3" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
+      <c r="E363" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="C364" s="1">
+      <c r="C364" s="2">
         <v>44762</v>
       </c>
-      <c r="D364" t="s">
+      <c r="D364" s="3" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
+      <c r="E364" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="C365" s="1">
+      <c r="C365" s="2">
         <v>44893</v>
       </c>
-      <c r="D365" t="s">
+      <c r="D365" s="3" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
+      <c r="E365" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="C366" s="1">
+      <c r="C366" s="2">
         <v>45097</v>
       </c>
-      <c r="D366" t="s">
+      <c r="D366" s="3" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
+      <c r="E366" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="C367" s="1">
+      <c r="C367" s="2">
         <v>45155</v>
       </c>
-      <c r="D367" t="s">
+      <c r="D367" s="3" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
+      <c r="E367" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="D368" t="s">
+      <c r="D368" s="3" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
+      <c r="E368" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="D369" t="s">
+      <c r="D369" s="3" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
+      <c r="E369" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="D370" t="s">
+      <c r="D370" s="3" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
+      <c r="E370" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D371" t="s">
+      <c r="D371" s="3" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
+      <c r="E371" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="D372" t="s">
+      <c r="D372" s="3" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
+      <c r="E372" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="D373" t="s">
+      <c r="D373" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
+      <c r="E373" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="D374" t="s">
+      <c r="D374" s="3" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
+      <c r="E374" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="D375" t="s">
+      <c r="D375" s="3" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
+      <c r="E375" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D376" t="s">
+      <c r="D376" s="3" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
+      <c r="E376" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="C377" s="1">
+      <c r="C377" s="2">
         <v>45516</v>
       </c>
-      <c r="D377" t="s">
+      <c r="D377" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
+      <c r="E377" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="D378" t="s">
+      <c r="D378" s="3" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
+      <c r="E378" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="D379" t="s">
+      <c r="D379" s="3" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
+      <c r="E379" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="C380" s="1">
+      <c r="C380" s="2">
         <v>45132</v>
       </c>
-      <c r="D380" t="s">
+      <c r="D380" s="3" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
+      <c r="E380" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="D381" t="s">
+      <c r="D381" s="3" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
+      <c r="E381" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="D382" t="s">
+      <c r="D382" s="3" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
+      <c r="E382" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="D383" t="s">
+      <c r="D383" s="3" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
+      <c r="E383" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="D384" t="s">
+      <c r="D384" s="3" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
+      <c r="E384" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D385" t="s">
+      <c r="D385" s="3" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
+      <c r="E385" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="C386" s="1">
+      <c r="C386" s="2">
         <v>45441</v>
       </c>
-      <c r="D386" t="s">
+      <c r="D386" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
+      <c r="E386" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D387" t="s">
+      <c r="D387" s="3" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
+      <c r="E387" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D388" t="s">
+      <c r="D388" s="3" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
+      <c r="E388" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="D389" t="s">
+      <c r="D389" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
+      <c r="E389" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="D390" t="s">
+      <c r="D390" s="3" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
+      <c r="E390" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D391" t="s">
+      <c r="D391" s="3" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
+      <c r="E391" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="D392" t="s">
+      <c r="D392" s="3" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
+      <c r="E392" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="C393" s="1">
+      <c r="C393" s="2">
         <v>45063</v>
       </c>
-      <c r="D393" t="s">
+      <c r="D393" s="3" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
+      <c r="E393" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="C394" s="1">
+      <c r="C394" s="2">
         <v>45247</v>
       </c>
-      <c r="D394" t="s">
+      <c r="D394" s="3" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
+      <c r="E394" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="D395" t="s">
+      <c r="D395" s="3" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
+      <c r="E395" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="C396" s="1">
+      <c r="C396" s="2">
         <v>44767</v>
       </c>
-      <c r="D396" t="s">
+      <c r="D396" s="3" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
+      <c r="E396" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="C397" s="1">
+      <c r="C397" s="2">
         <v>45722</v>
       </c>
-      <c r="D397" t="s">
+      <c r="D397" s="3" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
+      <c r="E397" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="C398" s="1">
+      <c r="C398" s="2">
         <v>45824</v>
       </c>
-      <c r="D398" t="s">
+      <c r="D398" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
+      <c r="E398" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C399" s="1">
+      <c r="C399" s="2">
         <v>45877</v>
       </c>
-      <c r="D399" t="s">
+      <c r="D399" s="3" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
+      <c r="E399" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="D400" t="s">
+      <c r="D400" s="3" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
+      <c r="E400" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="D401" t="s">
+      <c r="D401" s="3" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
+      <c r="E401" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="D402" t="s">
+      <c r="D402" s="3" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
+      <c r="E402" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="D403" t="s">
+      <c r="D403" s="3" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
+      <c r="E403" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="D404" t="s">
+      <c r="D404" s="3" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
+      <c r="E404" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="D405" t="s">
+      <c r="D405" s="3" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
+      <c r="E405" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="D406" t="s">
+      <c r="D406" s="3" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
+      <c r="E406" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="D407" t="s">
+      <c r="D407" s="3" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
+      <c r="E407" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="C408" s="1">
+      <c r="C408" s="2">
         <v>45114</v>
       </c>
-      <c r="D408" t="s">
+      <c r="D408" s="3" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
+      <c r="E408" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="C409" s="1">
+      <c r="C409" s="2">
         <v>45389</v>
       </c>
-      <c r="D409" t="s">
+      <c r="D409" s="3" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
+      <c r="E409" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="C410" s="1">
+      <c r="C410" s="2">
         <v>45539</v>
       </c>
-      <c r="D410" t="s">
+      <c r="D410" s="3" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
+      <c r="E410" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="C411" s="1">
+      <c r="C411" s="2">
         <v>45747</v>
       </c>
-      <c r="D411" t="s">
+      <c r="D411" s="3" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
+      <c r="E411" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="D412" t="s">
+      <c r="D412" s="3" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
+      <c r="E412" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="C413" s="1">
+      <c r="C413" s="2">
         <v>45624</v>
       </c>
-      <c r="D413" t="s">
+      <c r="D413" s="3" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
+      <c r="E413" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="C414" s="1">
+      <c r="C414" s="2">
         <v>45468</v>
       </c>
-      <c r="D414" t="s">
+      <c r="D414" s="3" t="s">
         <v>610</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>750</v>
       </c>
     </row>
   </sheetData>
